--- a/u6.xlsx
+++ b/u6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghao/IdeaProjects/USRA2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF196AD-B7D8-DC4A-84AC-9282B982B951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68764B71-39B4-B645-9A4E-A92B2D7FA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1860" windowWidth="37220" windowHeight="17440" activeTab="4" xr2:uid="{4AE96709-8D9D-584A-A784-62DAC4B3B382}"/>
+    <workbookView xWindow="1300" yWindow="1040" windowWidth="37220" windowHeight="17440" activeTab="4" xr2:uid="{4AE96709-8D9D-584A-A784-62DAC4B3B382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="605">
   <si>
     <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table Src0621_AC_icuY_yr20 is:</t>
   </si>
@@ -1792,1444 +1792,124 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_AC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_QC_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_ON_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_PS_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_icuY_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_icuY_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_icuN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_icuN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_hpN_dth is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 1 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 2 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 3 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 4 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 5 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 6 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 7 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 1 AND COV_AGR = 8 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 1 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 2 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 3 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 4 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 5 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 6 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 7 in table 2021Jun08_BY_hpN_rec is:</t>
-  </si>
-  <si>
-    <t>#entries that attribute COV_GDR = 2 AND COV_AGR = 8 in table 2021Jun08_BY_hpN_rec is:</t>
+    <t>COV_GDR</t>
+  </si>
+  <si>
+    <t>COV_AGR</t>
+  </si>
+  <si>
+    <t>COUNT(*)</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_AC_icuY_dth</t>
+  </si>
+  <si>
+    <t>top1</t>
+  </si>
+  <si>
+    <t>top2</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_AC_icuN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_AC_hpN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_QC_icuY_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_QC_icuN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_QC_hpN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_ON_icuY_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_ON_icuN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_ON_hpN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_PS_icuY_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_PS_icuN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_PS_hpN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_BY_icuY_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_BY_icuN_dth</t>
+  </si>
+  <si>
+    <t>summary_2021Jun08_BY_hpN_dth</t>
+  </si>
+  <si>
+    <t>AC3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3239,7 +1919,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3308,6 +1988,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3840,7 +2528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4107,6 +2795,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7649,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2DC140-9E94-A041-B69E-9C4AD3E7FD16}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12683,3855 +11374,2324 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04E6D5C-77A1-8745-B4F3-17A1028C98A0}">
-  <dimension ref="A1:B480"/>
+  <dimension ref="B2:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="83.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I2" s="89" t="s">
         <v>570</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="J2" s="89" t="s">
         <v>571</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="K2" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="M2" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>570</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>572</v>
+      </c>
+      <c r="R2" s="89" t="s">
+        <v>592</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>570</v>
+      </c>
+      <c r="T2" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="U2" s="89" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="89">
+        <v>1</v>
+      </c>
+      <c r="J3" s="89">
+        <v>6</v>
+      </c>
+      <c r="K3" s="89">
+        <v>4</v>
+      </c>
+      <c r="N3" s="89">
+        <v>1</v>
+      </c>
+      <c r="O3" s="89">
+        <v>6</v>
+      </c>
+      <c r="P3" s="89">
+        <v>2</v>
+      </c>
+      <c r="S3" s="89">
+        <v>1</v>
+      </c>
+      <c r="T3" s="89">
+        <v>6</v>
+      </c>
+      <c r="U3" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I4" s="89">
+        <v>1</v>
+      </c>
+      <c r="J4" s="89">
+        <v>7</v>
+      </c>
+      <c r="K4" s="89">
+        <v>14</v>
+      </c>
+      <c r="N4" s="89">
+        <v>1</v>
+      </c>
+      <c r="O4" s="89">
+        <v>7</v>
+      </c>
+      <c r="P4" s="89">
+        <v>5</v>
+      </c>
+      <c r="S4" s="89">
+        <v>1</v>
+      </c>
+      <c r="T4" s="89">
+        <v>8</v>
+      </c>
+      <c r="U4" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="89">
+        <v>1</v>
+      </c>
+      <c r="J5" s="89">
+        <v>8</v>
+      </c>
+      <c r="K5" s="89">
+        <v>16</v>
+      </c>
+      <c r="N5" s="89">
+        <v>1</v>
+      </c>
+      <c r="O5" s="89">
+        <v>8</v>
+      </c>
+      <c r="P5" s="89">
+        <v>5</v>
+      </c>
+      <c r="S5" s="89">
+        <v>2</v>
+      </c>
+      <c r="T5" s="89">
+        <v>6</v>
+      </c>
+      <c r="U5" s="89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="I6" s="89">
+        <v>2</v>
+      </c>
+      <c r="J6" s="89">
+        <v>5</v>
+      </c>
+      <c r="K6" s="89">
+        <v>3</v>
+      </c>
+      <c r="N6" s="89">
+        <v>2</v>
+      </c>
+      <c r="O6" s="89">
+        <v>6</v>
+      </c>
+      <c r="P6" s="89">
+        <v>1</v>
+      </c>
+      <c r="S6" s="89">
+        <v>2</v>
+      </c>
+      <c r="T6" s="89">
+        <v>7</v>
+      </c>
+      <c r="U6" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" t="s">
         <v>573</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="I7" s="89">
+        <v>2</v>
+      </c>
+      <c r="J7" s="89">
+        <v>6</v>
+      </c>
+      <c r="K7" s="89">
+        <v>4</v>
+      </c>
+      <c r="N7" s="89">
+        <v>2</v>
+      </c>
+      <c r="O7" s="89">
+        <v>7</v>
+      </c>
+      <c r="P7" s="89">
+        <v>6</v>
+      </c>
+      <c r="S7" s="89">
+        <v>2</v>
+      </c>
+      <c r="T7" s="89">
+        <v>8</v>
+      </c>
+      <c r="U7" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="89">
+        <v>2</v>
+      </c>
+      <c r="J8" s="89">
+        <v>7</v>
+      </c>
+      <c r="K8" s="89">
+        <v>6</v>
+      </c>
+      <c r="N8" s="89">
+        <v>2</v>
+      </c>
+      <c r="O8" s="89">
+        <v>8</v>
+      </c>
+      <c r="P8" s="89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>572</v>
+      </c>
+      <c r="I9" s="89">
+        <v>2</v>
+      </c>
+      <c r="J9" s="89">
+        <v>8</v>
+      </c>
+      <c r="K9" s="89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>593</v>
+      </c>
+      <c r="I11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J11" t="s">
+        <v>571</v>
+      </c>
+      <c r="K11" t="s">
+        <v>572</v>
+      </c>
+      <c r="M11" t="s">
+        <v>594</v>
+      </c>
+      <c r="N11" t="s">
+        <v>570</v>
+      </c>
+      <c r="O11" t="s">
+        <v>571</v>
+      </c>
+      <c r="P11" t="s">
+        <v>572</v>
+      </c>
+      <c r="R11" t="s">
+        <v>595</v>
+      </c>
+      <c r="S11" t="s">
+        <v>570</v>
+      </c>
+      <c r="T11" t="s">
+        <v>571</v>
+      </c>
+      <c r="U11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>23</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>52</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>76</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" t="s">
+        <v>576</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>275</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>192</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" t="s">
         <v>574</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" t="s">
+        <v>572</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>38</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>342</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>154</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" t="s">
         <v>575</v>
       </c>
-      <c r="B6">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>596</v>
+      </c>
+      <c r="I21" t="s">
+        <v>570</v>
+      </c>
+      <c r="J21" t="s">
+        <v>571</v>
+      </c>
+      <c r="K21" t="s">
+        <v>572</v>
+      </c>
+      <c r="M21" t="s">
+        <v>597</v>
+      </c>
+      <c r="N21" t="s">
+        <v>570</v>
+      </c>
+      <c r="O21" t="s">
+        <v>571</v>
+      </c>
+      <c r="P21" t="s">
+        <v>572</v>
+      </c>
+      <c r="R21" t="s">
+        <v>598</v>
+      </c>
+      <c r="S21" t="s">
+        <v>570</v>
+      </c>
+      <c r="T21" t="s">
+        <v>571</v>
+      </c>
+      <c r="U21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D22" t="s">
+        <v>572</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>49</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>178</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>84</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>404</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" t="s">
         <v>577</v>
       </c>
-      <c r="B8">
+      <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>302</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>1060</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>35</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" t="s">
+        <v>570</v>
+      </c>
+      <c r="C27" t="s">
+        <v>571</v>
+      </c>
+      <c r="D27" t="s">
+        <v>572</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>112</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>86</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>281</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
         <v>578</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>1135</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>599</v>
+      </c>
+      <c r="I31" t="s">
+        <v>570</v>
+      </c>
+      <c r="J31" t="s">
+        <v>571</v>
+      </c>
+      <c r="K31" t="s">
+        <v>572</v>
+      </c>
+      <c r="M31" t="s">
+        <v>600</v>
+      </c>
+      <c r="N31" t="s">
+        <v>570</v>
+      </c>
+      <c r="O31" t="s">
+        <v>571</v>
+      </c>
+      <c r="P31" t="s">
+        <v>572</v>
+      </c>
+      <c r="R31" t="s">
+        <v>601</v>
+      </c>
+      <c r="S31" t="s">
+        <v>570</v>
+      </c>
+      <c r="T31" t="s">
+        <v>571</v>
+      </c>
+      <c r="U31" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>52</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>113</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>118</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>256</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" t="s">
+        <v>578</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>469</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35">
+        <v>552</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" t="s">
+        <v>574</v>
+      </c>
+      <c r="C36">
+        <v>302</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>42</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" t="s">
+        <v>570</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>89</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>302</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>98</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>161</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>682</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="P39">
+        <v>456</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>8</v>
+      </c>
+      <c r="U39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" t="s">
+        <v>575</v>
+      </c>
+      <c r="C41">
+        <v>209</v>
+      </c>
+      <c r="H41" t="s">
+        <v>604</v>
+      </c>
+      <c r="I41" t="s">
+        <v>570</v>
+      </c>
+      <c r="J41" t="s">
+        <v>571</v>
+      </c>
+      <c r="K41" t="s">
+        <v>572</v>
+      </c>
+      <c r="M41" t="s">
+        <v>603</v>
+      </c>
+      <c r="N41" t="s">
+        <v>570</v>
+      </c>
+      <c r="O41" t="s">
+        <v>571</v>
+      </c>
+      <c r="P41" t="s">
+        <v>572</v>
+      </c>
+      <c r="R41" t="s">
+        <v>602</v>
+      </c>
+      <c r="S41" t="s">
+        <v>570</v>
+      </c>
+      <c r="T41" t="s">
+        <v>571</v>
+      </c>
+      <c r="U41" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" t="s">
+        <v>572</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>34</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>209</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>158</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>112</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>530</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>364</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+      <c r="U44">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" t="s">
         <v>579</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>1851</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>8</v>
+      </c>
+      <c r="P45">
+        <v>1270</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>8</v>
+      </c>
+      <c r="U45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46">
+        <v>1270</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>31</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" t="s">
+        <v>571</v>
+      </c>
+      <c r="D47" t="s">
+        <v>572</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>108</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>82</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1270</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>420</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <v>324</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>7</v>
+      </c>
+      <c r="U48">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>2891</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49">
+        <v>1251</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" t="s">
+        <v>575</v>
+      </c>
+      <c r="C51">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" t="s">
+        <v>571</v>
+      </c>
+      <c r="D52" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" t="s">
         <v>580</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" t="s">
+        <v>574</v>
+      </c>
+      <c r="C56">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>571</v>
+      </c>
+      <c r="D57" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" t="s">
+        <v>575</v>
+      </c>
+      <c r="C61">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62" t="s">
+        <v>570</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
+      <c r="D62" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
         <v>581</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>574</v>
+      </c>
+      <c r="C66">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>570</v>
+      </c>
+      <c r="C67" t="s">
+        <v>571</v>
+      </c>
+      <c r="D67" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>575</v>
+      </c>
+      <c r="C71">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>570</v>
+      </c>
+      <c r="C72" t="s">
+        <v>571</v>
+      </c>
+      <c r="D72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
         <v>582</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>574</v>
+      </c>
+      <c r="C76">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>570</v>
+      </c>
+      <c r="C77" t="s">
+        <v>571</v>
+      </c>
+      <c r="D77" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>575</v>
+      </c>
+      <c r="C81">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>570</v>
+      </c>
+      <c r="C82" t="s">
+        <v>571</v>
+      </c>
+      <c r="D82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>583</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>574</v>
+      </c>
+      <c r="C86">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>570</v>
+      </c>
+      <c r="C87" t="s">
+        <v>571</v>
+      </c>
+      <c r="D87" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>570</v>
+      </c>
+      <c r="C92" t="s">
+        <v>571</v>
+      </c>
+      <c r="D92" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
         <v>584</v>
       </c>
-      <c r="B15">
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" t="s">
+        <v>571</v>
+      </c>
+      <c r="D97" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>570</v>
+      </c>
+      <c r="C102" t="s">
+        <v>571</v>
+      </c>
+      <c r="D102" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
         <v>585</v>
       </c>
-      <c r="B16">
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>574</v>
+      </c>
+      <c r="C106">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>570</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>575</v>
+      </c>
+      <c r="C111">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>570</v>
+      </c>
+      <c r="C112" t="s">
+        <v>571</v>
+      </c>
+      <c r="D112" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
         <v>586</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>574</v>
+      </c>
+      <c r="C116">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>570</v>
+      </c>
+      <c r="C117" t="s">
+        <v>571</v>
+      </c>
+      <c r="D117" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>570</v>
+      </c>
+      <c r="C122" t="s">
+        <v>571</v>
+      </c>
+      <c r="D122" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
         <v>587</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>574</v>
+      </c>
+      <c r="C126">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>570</v>
+      </c>
+      <c r="C127" t="s">
+        <v>571</v>
+      </c>
+      <c r="D127" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>575</v>
+      </c>
+      <c r="C131">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>570</v>
+      </c>
+      <c r="C132" t="s">
+        <v>571</v>
+      </c>
+      <c r="D132" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
         <v>588</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>574</v>
+      </c>
+      <c r="C136">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>570</v>
+      </c>
+      <c r="C137" t="s">
+        <v>571</v>
+      </c>
+      <c r="D137" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>575</v>
+      </c>
+      <c r="C141">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
+        <v>570</v>
+      </c>
+      <c r="C142" t="s">
+        <v>571</v>
+      </c>
+      <c r="D142" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
         <v>589</v>
       </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>590</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>593</v>
-      </c>
-      <c r="B24">
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>574</v>
+      </c>
+      <c r="C146">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>570</v>
+      </c>
+      <c r="C147" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>594</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>595</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>596</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>597</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>598</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>599</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>600</v>
-      </c>
-      <c r="B31">
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>575</v>
+      </c>
+      <c r="C151">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>570</v>
+      </c>
+      <c r="C152" t="s">
+        <v>571</v>
+      </c>
+      <c r="D152" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>601</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>602</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>603</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>604</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>605</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>606</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>607</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>608</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>609</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>610</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>611</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>612</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>613</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>614</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>615</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>616</v>
-      </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>617</v>
-      </c>
-      <c r="B48">
+      <c r="C153">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>618</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>619</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>620</v>
-      </c>
-      <c r="B51">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>621</v>
-      </c>
-      <c r="B52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>622</v>
-      </c>
-      <c r="B53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>623</v>
-      </c>
-      <c r="B54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>624</v>
-      </c>
-      <c r="B55">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>625</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>626</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>627</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>628</v>
-      </c>
-      <c r="B59">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>629</v>
-      </c>
-      <c r="B60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>630</v>
-      </c>
-      <c r="B61">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>631</v>
-      </c>
-      <c r="B62">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>632</v>
-      </c>
-      <c r="B63">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>633</v>
-      </c>
-      <c r="B64">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>634</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>635</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>636</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>637</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>638</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>639</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>640</v>
-      </c>
-      <c r="B71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>641</v>
-      </c>
-      <c r="B72">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>642</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>643</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>644</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>645</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>646</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>647</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>648</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>649</v>
-      </c>
-      <c r="B80">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>650</v>
-      </c>
-      <c r="B81">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>651</v>
-      </c>
-      <c r="B82">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>652</v>
-      </c>
-      <c r="B83">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>653</v>
-      </c>
-      <c r="B84">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>654</v>
-      </c>
-      <c r="B85">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>655</v>
-      </c>
-      <c r="B86">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>656</v>
-      </c>
-      <c r="B87">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>657</v>
-      </c>
-      <c r="B88">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>658</v>
-      </c>
-      <c r="B89">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>659</v>
-      </c>
-      <c r="B90">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>660</v>
-      </c>
-      <c r="B91">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>661</v>
-      </c>
-      <c r="B92">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>662</v>
-      </c>
-      <c r="B93">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>663</v>
-      </c>
-      <c r="B94">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>664</v>
-      </c>
-      <c r="B95">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>665</v>
-      </c>
-      <c r="B96">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>666</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>667</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>668</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>669</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>670</v>
-      </c>
-      <c r="B101">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>671</v>
-      </c>
-      <c r="B102">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>672</v>
-      </c>
-      <c r="B103">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>673</v>
-      </c>
-      <c r="B104">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>674</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>675</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>676</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>677</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>678</v>
-      </c>
-      <c r="B109">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>679</v>
-      </c>
-      <c r="B110">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>680</v>
-      </c>
-      <c r="B111">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>681</v>
-      </c>
-      <c r="B112">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>682</v>
-      </c>
-      <c r="B113">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>683</v>
-      </c>
-      <c r="B114">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>684</v>
-      </c>
-      <c r="B115">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>685</v>
-      </c>
-      <c r="B116">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>686</v>
-      </c>
-      <c r="B117">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>687</v>
-      </c>
-      <c r="B118">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>688</v>
-      </c>
-      <c r="B119">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>689</v>
-      </c>
-      <c r="B120">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>690</v>
-      </c>
-      <c r="B121">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>691</v>
-      </c>
-      <c r="B122">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>692</v>
-      </c>
-      <c r="B123">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>693</v>
-      </c>
-      <c r="B124">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>694</v>
-      </c>
-      <c r="B125">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>695</v>
-      </c>
-      <c r="B126">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>696</v>
-      </c>
-      <c r="B127">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>697</v>
-      </c>
-      <c r="B128">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>698</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>699</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>700</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>701</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>702</v>
-      </c>
-      <c r="B133">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>703</v>
-      </c>
-      <c r="B134">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>704</v>
-      </c>
-      <c r="B135">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>705</v>
-      </c>
-      <c r="B136">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>706</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>707</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>708</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>709</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>710</v>
-      </c>
-      <c r="B141">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>711</v>
-      </c>
-      <c r="B142">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>712</v>
-      </c>
-      <c r="B143">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>713</v>
-      </c>
-      <c r="B144">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>714</v>
-      </c>
-      <c r="B145">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>715</v>
-      </c>
-      <c r="B146">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>716</v>
-      </c>
-      <c r="B147">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>717</v>
-      </c>
-      <c r="B148">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>718</v>
-      </c>
-      <c r="B149">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>719</v>
-      </c>
-      <c r="B150">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>720</v>
-      </c>
-      <c r="B151">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>721</v>
-      </c>
-      <c r="B152">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>722</v>
-      </c>
-      <c r="B153">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>723</v>
-      </c>
-      <c r="B154">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>724</v>
-      </c>
-      <c r="B155">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>725</v>
-      </c>
-      <c r="B156">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>726</v>
-      </c>
-      <c r="B157">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>727</v>
-      </c>
-      <c r="B158">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>728</v>
-      </c>
-      <c r="B159">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>729</v>
-      </c>
-      <c r="B160">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>730</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>731</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>732</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>733</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>734</v>
-      </c>
-      <c r="B165">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>735</v>
-      </c>
-      <c r="B166">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>736</v>
-      </c>
-      <c r="B167">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>737</v>
-      </c>
-      <c r="B168">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>738</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>739</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>740</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>741</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>742</v>
-      </c>
-      <c r="B173">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>743</v>
-      </c>
-      <c r="B174">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>744</v>
-      </c>
-      <c r="B175">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>745</v>
-      </c>
-      <c r="B176">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>746</v>
-      </c>
-      <c r="B177">
-        <v>36814</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>747</v>
-      </c>
-      <c r="B178">
-        <v>26228</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>748</v>
-      </c>
-      <c r="B179">
-        <v>23083</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>749</v>
-      </c>
-      <c r="B180">
-        <v>23976</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>750</v>
-      </c>
-      <c r="B181">
-        <v>21399</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>751</v>
-      </c>
-      <c r="B182">
-        <v>12762</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>752</v>
-      </c>
-      <c r="B183">
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>753</v>
-      </c>
-      <c r="B184">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>754</v>
-      </c>
-      <c r="B185">
-        <v>35261</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>755</v>
-      </c>
-      <c r="B186">
-        <v>28579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>756</v>
-      </c>
-      <c r="B187">
-        <v>27271</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>757</v>
-      </c>
-      <c r="B188">
-        <v>28372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>758</v>
-      </c>
-      <c r="B189">
-        <v>22889</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>759</v>
-      </c>
-      <c r="B190">
-        <v>12389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>760</v>
-      </c>
-      <c r="B191">
-        <v>6740</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>761</v>
-      </c>
-      <c r="B192">
-        <v>12435</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>762</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>763</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>764</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>765</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>766</v>
-      </c>
-      <c r="B197">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>767</v>
-      </c>
-      <c r="B198">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>768</v>
-      </c>
-      <c r="B199">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>769</v>
-      </c>
-      <c r="B200">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>770</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>771</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>772</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>773</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>774</v>
-      </c>
-      <c r="B205">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>775</v>
-      </c>
-      <c r="B206">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>776</v>
-      </c>
-      <c r="B207">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>777</v>
-      </c>
-      <c r="B208">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>778</v>
-      </c>
-      <c r="B209">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>779</v>
-      </c>
-      <c r="B210">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>780</v>
-      </c>
-      <c r="B211">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>781</v>
-      </c>
-      <c r="B212">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>782</v>
-      </c>
-      <c r="B213">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>783</v>
-      </c>
-      <c r="B214">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>784</v>
-      </c>
-      <c r="B215">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>785</v>
-      </c>
-      <c r="B216">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>786</v>
-      </c>
-      <c r="B217">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>787</v>
-      </c>
-      <c r="B218">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>788</v>
-      </c>
-      <c r="B219">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>789</v>
-      </c>
-      <c r="B220">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>790</v>
-      </c>
-      <c r="B221">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>791</v>
-      </c>
-      <c r="B222">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>792</v>
-      </c>
-      <c r="B223">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>793</v>
-      </c>
-      <c r="B224">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>794</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>795</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>796</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>797</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>798</v>
-      </c>
-      <c r="B229">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>799</v>
-      </c>
-      <c r="B230">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>800</v>
-      </c>
-      <c r="B231">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>801</v>
-      </c>
-      <c r="B232">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>802</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>803</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>804</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>805</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>806</v>
-      </c>
-      <c r="B237">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>807</v>
-      </c>
-      <c r="B238">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>808</v>
-      </c>
-      <c r="B239">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>809</v>
-      </c>
-      <c r="B240">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>810</v>
-      </c>
-      <c r="B241">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>811</v>
-      </c>
-      <c r="B242">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>812</v>
-      </c>
-      <c r="B243">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>813</v>
-      </c>
-      <c r="B244">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>814</v>
-      </c>
-      <c r="B245">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>815</v>
-      </c>
-      <c r="B246">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>816</v>
-      </c>
-      <c r="B247">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>817</v>
-      </c>
-      <c r="B248">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>818</v>
-      </c>
-      <c r="B249">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>819</v>
-      </c>
-      <c r="B250">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>820</v>
-      </c>
-      <c r="B251">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>821</v>
-      </c>
-      <c r="B252">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>822</v>
-      </c>
-      <c r="B253">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>823</v>
-      </c>
-      <c r="B254">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>824</v>
-      </c>
-      <c r="B255">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>825</v>
-      </c>
-      <c r="B256">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>826</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>827</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>828</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>829</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>830</v>
-      </c>
-      <c r="B261">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>831</v>
-      </c>
-      <c r="B262">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>832</v>
-      </c>
-      <c r="B263">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>833</v>
-      </c>
-      <c r="B264">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>834</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>835</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>836</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>837</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>838</v>
-      </c>
-      <c r="B269">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>839</v>
-      </c>
-      <c r="B270">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>840</v>
-      </c>
-      <c r="B271">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>841</v>
-      </c>
-      <c r="B272">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>842</v>
-      </c>
-      <c r="B273">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>843</v>
-      </c>
-      <c r="B274">
-        <v>10641</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>844</v>
-      </c>
-      <c r="B275">
-        <v>8891</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>845</v>
-      </c>
-      <c r="B276">
-        <v>7314</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>846</v>
-      </c>
-      <c r="B277">
-        <v>6844</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>847</v>
-      </c>
-      <c r="B278">
-        <v>4109</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>848</v>
-      </c>
-      <c r="B279">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>849</v>
-      </c>
-      <c r="B280">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>850</v>
-      </c>
-      <c r="B281">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>851</v>
-      </c>
-      <c r="B282">
-        <v>9551</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>852</v>
-      </c>
-      <c r="B283">
-        <v>8479</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>853</v>
-      </c>
-      <c r="B284">
-        <v>7801</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>854</v>
-      </c>
-      <c r="B285">
-        <v>7356</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>855</v>
-      </c>
-      <c r="B286">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>856</v>
-      </c>
-      <c r="B287">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>857</v>
-      </c>
-      <c r="B288">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>858</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>859</v>
-      </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>860</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>861</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>862</v>
-      </c>
-      <c r="B293">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>863</v>
-      </c>
-      <c r="B294">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>864</v>
-      </c>
-      <c r="B295">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>865</v>
-      </c>
-      <c r="B296">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>866</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>867</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>868</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>869</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>870</v>
-      </c>
-      <c r="B301">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>871</v>
-      </c>
-      <c r="B302">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>872</v>
-      </c>
-      <c r="B303">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>873</v>
-      </c>
-      <c r="B304">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>874</v>
-      </c>
-      <c r="B305">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>875</v>
-      </c>
-      <c r="B306">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>876</v>
-      </c>
-      <c r="B307">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>877</v>
-      </c>
-      <c r="B308">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>878</v>
-      </c>
-      <c r="B309">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>879</v>
-      </c>
-      <c r="B310">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>880</v>
-      </c>
-      <c r="B311">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>881</v>
-      </c>
-      <c r="B312">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>882</v>
-      </c>
-      <c r="B313">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>883</v>
-      </c>
-      <c r="B314">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>884</v>
-      </c>
-      <c r="B315">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>885</v>
-      </c>
-      <c r="B316">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>886</v>
-      </c>
-      <c r="B317">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>887</v>
-      </c>
-      <c r="B318">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>888</v>
-      </c>
-      <c r="B319">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>889</v>
-      </c>
-      <c r="B320">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>890</v>
-      </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>891</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
-        <v>892</v>
-      </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
-        <v>893</v>
-      </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
-        <v>894</v>
-      </c>
-      <c r="B325">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
-        <v>895</v>
-      </c>
-      <c r="B326">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
-        <v>896</v>
-      </c>
-      <c r="B327">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
-        <v>897</v>
-      </c>
-      <c r="B328">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
-        <v>898</v>
-      </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>899</v>
-      </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>900</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
-        <v>901</v>
-      </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
-        <v>902</v>
-      </c>
-      <c r="B333">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>903</v>
-      </c>
-      <c r="B334">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>904</v>
-      </c>
-      <c r="B335">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>905</v>
-      </c>
-      <c r="B336">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
-        <v>906</v>
-      </c>
-      <c r="B337">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
-        <v>907</v>
-      </c>
-      <c r="B338">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
-        <v>908</v>
-      </c>
-      <c r="B339">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>909</v>
-      </c>
-      <c r="B340">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>910</v>
-      </c>
-      <c r="B341">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
-        <v>911</v>
-      </c>
-      <c r="B342">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
-        <v>912</v>
-      </c>
-      <c r="B343">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
-        <v>913</v>
-      </c>
-      <c r="B344">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
-        <v>914</v>
-      </c>
-      <c r="B345">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
-        <v>915</v>
-      </c>
-      <c r="B346">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
-        <v>916</v>
-      </c>
-      <c r="B347">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
-        <v>917</v>
-      </c>
-      <c r="B348">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>918</v>
-      </c>
-      <c r="B349">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>919</v>
-      </c>
-      <c r="B350">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="s">
-        <v>920</v>
-      </c>
-      <c r="B351">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="s">
-        <v>921</v>
-      </c>
-      <c r="B352">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
-        <v>922</v>
-      </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" t="s">
-        <v>923</v>
-      </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="s">
-        <v>924</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="s">
-        <v>925</v>
-      </c>
-      <c r="B356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>926</v>
-      </c>
-      <c r="B357">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>927</v>
-      </c>
-      <c r="B358">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>928</v>
-      </c>
-      <c r="B359">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="s">
-        <v>929</v>
-      </c>
-      <c r="B360">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>930</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
-        <v>931</v>
-      </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" t="s">
-        <v>932</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="s">
-        <v>933</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>934</v>
-      </c>
-      <c r="B365">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="s">
-        <v>935</v>
-      </c>
-      <c r="B366">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>936</v>
-      </c>
-      <c r="B367">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>937</v>
-      </c>
-      <c r="B368">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>938</v>
-      </c>
-      <c r="B369">
-        <v>37018</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>939</v>
-      </c>
-      <c r="B370">
-        <v>29140</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>940</v>
-      </c>
-      <c r="B371">
-        <v>28196</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>941</v>
-      </c>
-      <c r="B372">
-        <v>22552</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>942</v>
-      </c>
-      <c r="B373">
-        <v>17218</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
-        <v>943</v>
-      </c>
-      <c r="B374">
-        <v>9686</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
-        <v>944</v>
-      </c>
-      <c r="B375">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
-        <v>945</v>
-      </c>
-      <c r="B376">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
-        <v>946</v>
-      </c>
-      <c r="B377">
-        <v>34682</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
-        <v>947</v>
-      </c>
-      <c r="B378">
-        <v>27779</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
-        <v>948</v>
-      </c>
-      <c r="B379">
-        <v>27270</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>949</v>
-      </c>
-      <c r="B380">
-        <v>22695</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>950</v>
-      </c>
-      <c r="B381">
-        <v>16825</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>951</v>
-      </c>
-      <c r="B382">
-        <v>9282</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
-        <v>952</v>
-      </c>
-      <c r="B383">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
-        <v>953</v>
-      </c>
-      <c r="B384">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="s">
-        <v>954</v>
-      </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
-        <v>955</v>
-      </c>
-      <c r="B386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="s">
-        <v>956</v>
-      </c>
-      <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>957</v>
-      </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
-        <v>958</v>
-      </c>
-      <c r="B389">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
-        <v>959</v>
-      </c>
-      <c r="B390">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>960</v>
-      </c>
-      <c r="B391">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>961</v>
-      </c>
-      <c r="B392">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="s">
-        <v>962</v>
-      </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
-        <v>963</v>
-      </c>
-      <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
-        <v>964</v>
-      </c>
-      <c r="B395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
-        <v>965</v>
-      </c>
-      <c r="B396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="s">
-        <v>966</v>
-      </c>
-      <c r="B397">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="s">
-        <v>967</v>
-      </c>
-      <c r="B398">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>968</v>
-      </c>
-      <c r="B399">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>969</v>
-      </c>
-      <c r="B400">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
-        <v>970</v>
-      </c>
-      <c r="B401">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
-        <v>971</v>
-      </c>
-      <c r="B402">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
-        <v>972</v>
-      </c>
-      <c r="B403">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
-        <v>973</v>
-      </c>
-      <c r="B404">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
-        <v>974</v>
-      </c>
-      <c r="B405">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
-        <v>975</v>
-      </c>
-      <c r="B406">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
-        <v>976</v>
-      </c>
-      <c r="B407">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
-        <v>977</v>
-      </c>
-      <c r="B408">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
-        <v>978</v>
-      </c>
-      <c r="B409">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>979</v>
-      </c>
-      <c r="B410">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>980</v>
-      </c>
-      <c r="B411">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
-        <v>981</v>
-      </c>
-      <c r="B412">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>982</v>
-      </c>
-      <c r="B413">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>983</v>
-      </c>
-      <c r="B414">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>984</v>
-      </c>
-      <c r="B415">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>985</v>
-      </c>
-      <c r="B416">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>986</v>
-      </c>
-      <c r="B417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
-        <v>987</v>
-      </c>
-      <c r="B418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
-        <v>988</v>
-      </c>
-      <c r="B419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
-        <v>989</v>
-      </c>
-      <c r="B420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>990</v>
-      </c>
-      <c r="B421">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>991</v>
-      </c>
-      <c r="B422">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>992</v>
-      </c>
-      <c r="B423">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>993</v>
-      </c>
-      <c r="B424">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>994</v>
-      </c>
-      <c r="B425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>995</v>
-      </c>
-      <c r="B426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>996</v>
-      </c>
-      <c r="B427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>997</v>
-      </c>
-      <c r="B428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>998</v>
-      </c>
-      <c r="B429">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>999</v>
-      </c>
-      <c r="B430">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B431">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B432">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B433">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B434">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B435">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B436">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B437">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B438">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B439">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B440">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B441">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B442">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B443">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B444">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B445">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B446">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B447">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B448">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B453">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B454">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B455">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B456">
+      <c r="D153">
         <v>275</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B462">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B463">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B464">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B465">
-        <v>11707</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B466">
-        <v>16565</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B467">
-        <v>13060</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B468">
-        <v>9767</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B469">
-        <v>8190</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B470">
-        <v>5047</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B471">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B472">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B473">
-        <v>10392</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B474">
-        <v>14623</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B475">
-        <v>12058</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B476">
-        <v>10093</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B477">
-        <v>8207</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B478">
-        <v>4837</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B479">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B480">
-        <v>1684</v>
       </c>
     </row>
   </sheetData>
